--- a/attachments/DSJ_AE_Healthcare_Operations.xlsx
+++ b/attachments/DSJ_AE_Healthcare_Operations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\DSJ AEs and ERBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAAFF44-FAA7-4C7E-84FC-2EEA592897FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C350692-6CE8-4707-8695-C10807E85B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="311">
   <si>
     <t>First Name</t>
   </si>
@@ -954,12 +954,39 @@
   <si>
     <t xml:space="preserve">Editorial Review Board Members </t>
   </si>
+  <si>
+    <t>Yuting</t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>yxy5520@psu.edu</t>
+  </si>
+  <si>
+    <t>Smeal College of Business</t>
+  </si>
+  <si>
+    <t>Penn State University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozge </t>
+  </si>
+  <si>
+    <t>Yapar</t>
+  </si>
+  <si>
+    <t>oyapar@iu.edu</t>
+  </si>
+  <si>
+    <t>Kelley School of Business</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1018,6 +1045,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1051,35 +1091,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FA6E3AFD-4AC7-4C52-828B-AE638F4674EF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1299,8 +1343,8 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1359,7 +1403,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>300</v>
       </c>
       <c r="B2" s="3"/>
@@ -2183,7 +2227,7 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>301</v>
       </c>
       <c r="B25" s="3"/>
@@ -2972,12 +3016,58 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="J48" s="10"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:12" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+    </row>
+    <row r="49" spans="1:12" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+    </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2997,8 +3087,8 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="11"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3949,7 +4039,7 @@
   <customSheetViews>
     <customSheetView guid="{E01B7CF6-AE3F-4C25-BC66-0A6FEA5041EC}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L60" xr:uid="{AA20BCD6-8507-41B4-87F6-B40BB0EA7EA0}"/>
+      <autoFilter ref="A1:L60" xr:uid="{391DC439-C621-4C59-9D62-8E64C2B68802}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="527219435"/>
@@ -3957,8 +4047,7 @@
       </extLst>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="2">
-    <mergeCell ref="J48:L48"/>
+  <mergeCells count="1">
     <mergeCell ref="K58:L58"/>
   </mergeCells>
   <hyperlinks>

--- a/attachments/DSJ_AE_Healthcare_Operations.xlsx
+++ b/attachments/DSJ_AE_Healthcare_Operations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liangfeiqiu\Dropbox\UF\Review\DSJ EIC\DSJ EIC\DSJ board\Finalized\DSJ AEs and ERBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C350692-6CE8-4707-8695-C10807E85B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4262864B-878D-4D77-98EF-AC49C1CD5D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="315">
   <si>
     <t>First Name</t>
   </si>
@@ -543,6 +543,7 @@
         <sz val="11"/>
         <color rgb="FF1155CC"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>C.Vasilakis</t>
     </r>
@@ -551,6 +552,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>@bath.ac.uk</t>
     </r>
@@ -980,6 +982,18 @@
   </si>
   <si>
     <t>Kelley School of Business</t>
+  </si>
+  <si>
+    <t>Wenjuan</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>fanwenjuan@hfut.edu.cn</t>
+  </si>
+  <si>
+    <t>Hefei University of Technology</t>
   </si>
 </sst>
 </file>
@@ -998,16 +1012,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1015,22 +1032,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1095,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1116,10 +1137,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,7 +1364,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2792,7 +2812,7 @@
       </c>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
         <v>254</v>
       </c>
@@ -2808,7 +2828,7 @@
       <c r="E42" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -2846,7 +2866,7 @@
       <c r="E43" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -2884,7 +2904,7 @@
       <c r="E44" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="8" t="s">
@@ -2922,7 +2942,7 @@
       <c r="E45" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="9" t="s">
@@ -2960,7 +2980,7 @@
       <c r="E46" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="8" t="s">
@@ -2978,7 +2998,7 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
         <v>294</v>
       </c>
@@ -2994,7 +3014,7 @@
       <c r="E47" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -3016,59 +3036,76 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="14" t="s">
+    <row r="48" spans="1:12" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="E48" s="14" t="s">
+      <c r="E48" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="F48" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="1:12" s="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="14" t="s">
+      <c r="F48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="E49" s="14" t="s">
+      <c r="E49" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F49" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="F49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3087,8 +3124,8 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4039,7 +4076,7 @@
   <customSheetViews>
     <customSheetView guid="{E01B7CF6-AE3F-4C25-BC66-0A6FEA5041EC}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:L60" xr:uid="{391DC439-C621-4C59-9D62-8E64C2B68802}"/>
+      <autoFilter ref="A1:L60" xr:uid="{E20CE3B0-5BE9-4EE7-A816-B1203941F314}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="527219435"/>
